--- a/apin_summary_End.xlsx
+++ b/apin_summary_End.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:J55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,20 +456,30 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>P-value</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>STD-value</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>R2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>min</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>avg</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>max</t>
         </is>
@@ -487,21 +497,27 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.8320158102766572</v>
+        <v>0.8320158102766798</v>
       </c>
       <c r="D2" t="n">
-        <v>-1438.934782608649</v>
+        <v>-1438.934782608696</v>
       </c>
       <c r="E2" t="n">
+        <v>0.0005351387612396892</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.2038668136566138</v>
+      </c>
+      <c r="G2" t="n">
         <v>0.4423195943180574</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
         <v>219</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>235.9130434782609</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>248</v>
       </c>
     </row>
@@ -517,21 +533,27 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.637351778656045</v>
+        <v>1.637351778656126</v>
       </c>
       <c r="D3" t="n">
-        <v>-3030.945652173748</v>
+        <v>-3030.945652173912</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3800404007184318</v>
+        <v>0.0017323883279168</v>
       </c>
       <c r="F3" t="n">
+        <v>0.4563511605431255</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.3800404007184316</v>
+      </c>
+      <c r="H3" t="n">
         <v>235</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>265.0434782608696</v>
       </c>
-      <c r="H3" t="n">
+      <c r="J3" t="n">
         <v>302</v>
       </c>
     </row>
@@ -547,21 +569,27 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.7450592885375305</v>
+        <v>-0.7450592885375493</v>
       </c>
       <c r="D4" t="n">
-        <v>1627.152173913005</v>
+        <v>1627.152173913043</v>
       </c>
       <c r="E4" t="n">
+        <v>0.002266460195114804</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.2144597262944456</v>
+      </c>
+      <c r="G4" t="n">
         <v>0.3649742438793904</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
         <v>110</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>127.3478260869565</v>
       </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
         <v>144</v>
       </c>
     </row>
@@ -577,21 +605,27 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.7470355731224935</v>
+        <v>0.7470355731225297</v>
       </c>
       <c r="D5" t="n">
-        <v>-1242.739130434709</v>
+        <v>-1242.739130434783</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3351771312755987</v>
+        <v>0.003797451561057973</v>
       </c>
       <c r="F5" t="n">
+        <v>0.2295870674791275</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.3351771312755986</v>
+      </c>
+      <c r="H5" t="n">
         <v>246</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>261.0434782608696</v>
       </c>
-      <c r="H5" t="n">
+      <c r="J5" t="n">
         <v>289</v>
       </c>
     </row>
@@ -607,21 +641,27 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-0.8356807511737497</v>
+        <v>-0.8356807511737089</v>
       </c>
       <c r="D6" t="n">
-        <v>1841.556338028251</v>
+        <v>1841.556338028169</v>
       </c>
       <c r="E6" t="n">
+        <v>0.01324733048082075</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.3000752186077683</v>
+      </c>
+      <c r="G6" t="n">
         <v>0.3264771988124448</v>
       </c>
-      <c r="F6" t="n">
+      <c r="H6" t="n">
         <v>126</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>160.1666666666667</v>
       </c>
-      <c r="H6" t="n">
+      <c r="J6" t="n">
         <v>174</v>
       </c>
     </row>
@@ -637,21 +677,27 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-0.6926877470355767</v>
+        <v>-0.6926877470355729</v>
       </c>
       <c r="D7" t="n">
-        <v>1516.989130434789</v>
+        <v>1516.989130434782</v>
       </c>
       <c r="E7" t="n">
-        <v>0.24333720902594</v>
+        <v>0.01676222622905757</v>
       </c>
       <c r="F7" t="n">
+        <v>0.2665476057200243</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.2433372090259401</v>
+      </c>
+      <c r="H7" t="n">
         <v>106</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>122.6086956521739</v>
       </c>
-      <c r="H7" t="n">
+      <c r="J7" t="n">
         <v>140</v>
       </c>
     </row>
@@ -667,21 +713,27 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-2.703557312252968</v>
+        <v>-2.703557312252964</v>
       </c>
       <c r="D8" t="n">
-        <v>5550.565217391309</v>
+        <v>5550.565217391303</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2424042085618338</v>
+        <v>0.01700553875616813</v>
       </c>
       <c r="F8" t="n">
+        <v>1.042976761522025</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.2424042085618336</v>
+      </c>
+      <c r="H8" t="n">
         <v>64</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>108.304347826087</v>
       </c>
-      <c r="H8" t="n">
+      <c r="J8" t="n">
         <v>166</v>
       </c>
     </row>
@@ -697,21 +749,27 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-0.5524986469420987</v>
+        <v>-0.5524986469420897</v>
       </c>
       <c r="D9" t="n">
-        <v>1279.139094353258</v>
+        <v>1279.13909435324</v>
       </c>
       <c r="E9" t="n">
+        <v>0.02489396321664485</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.2278224241648988</v>
+      </c>
+      <c r="G9" t="n">
         <v>0.2272397402981668</v>
       </c>
-      <c r="F9" t="n">
+      <c r="H9" t="n">
         <v>155</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>166.9090909090909</v>
       </c>
-      <c r="H9" t="n">
+      <c r="J9" t="n">
         <v>180</v>
       </c>
     </row>
@@ -727,21 +785,27 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-2.950592885375797</v>
+        <v>-2.950592885375494</v>
       </c>
       <c r="D10" t="n">
-        <v>6089.28260869626</v>
+        <v>6089.282608695653</v>
       </c>
       <c r="E10" t="n">
-        <v>0.226767521907662</v>
+        <v>0.02161622660106925</v>
       </c>
       <c r="F10" t="n">
+        <v>1.188951831289931</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.2267675219076621</v>
+      </c>
+      <c r="H10" t="n">
         <v>111</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>149.7391304347826</v>
       </c>
-      <c r="H10" t="n">
+      <c r="J10" t="n">
         <v>317</v>
       </c>
     </row>
@@ -757,21 +821,27 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-0.6830236334115005</v>
+        <v>-0.6830236334115107</v>
       </c>
       <c r="D11" t="n">
-        <v>1452.670485296751</v>
+        <v>1452.670485296772</v>
       </c>
       <c r="E11" t="n">
+        <v>0.02931348768962981</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.2909780970568769</v>
+      </c>
+      <c r="G11" t="n">
         <v>0.2159934411740467</v>
       </c>
-      <c r="F11" t="n">
+      <c r="H11" t="n">
         <v>58</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>77.68181818181819</v>
       </c>
-      <c r="H11" t="n">
+      <c r="J11" t="n">
         <v>94</v>
       </c>
     </row>
@@ -787,21 +857,27 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.5484189723319728</v>
+        <v>0.5484189723320158</v>
       </c>
       <c r="D12" t="n">
-        <v>-873.9673913042608</v>
+        <v>-873.9673913043478</v>
       </c>
       <c r="E12" t="n">
+        <v>0.027664405900265</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.2317727115009965</v>
+      </c>
+      <c r="G12" t="n">
         <v>0.210492759090089</v>
       </c>
-      <c r="F12" t="n">
+      <c r="H12" t="n">
         <v>208</v>
       </c>
-      <c r="G12" t="n">
+      <c r="I12" t="n">
         <v>230</v>
       </c>
-      <c r="H12" t="n">
+      <c r="J12" t="n">
         <v>241</v>
       </c>
     </row>
@@ -817,21 +893,27 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-0.6966403162054781</v>
+        <v>-0.6966403162055335</v>
       </c>
       <c r="D13" t="n">
-        <v>1480.554347825974</v>
+        <v>1480.554347826087</v>
       </c>
       <c r="E13" t="n">
+        <v>0.0337485085263531</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.3066781042940093</v>
+      </c>
+      <c r="G13" t="n">
         <v>0.1972484236794147</v>
       </c>
-      <c r="F13" t="n">
+      <c r="H13" t="n">
         <v>56</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>78.21739130434783</v>
       </c>
-      <c r="H13" t="n">
+      <c r="J13" t="n">
         <v>95</v>
       </c>
     </row>
@@ -847,21 +929,27 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-0.4940711462450419</v>
+        <v>-0.4940711462450593</v>
       </c>
       <c r="D14" t="n">
-        <v>1118.521739130399</v>
+        <v>1118.521739130435</v>
       </c>
       <c r="E14" t="n">
+        <v>0.03395115048624692</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.2177776625931029</v>
+      </c>
+      <c r="G14" t="n">
         <v>0.1968479137270712</v>
       </c>
-      <c r="F14" t="n">
+      <c r="H14" t="n">
         <v>106</v>
       </c>
-      <c r="G14" t="n">
+      <c r="I14" t="n">
         <v>123.9565217391304</v>
       </c>
-      <c r="H14" t="n">
+      <c r="J14" t="n">
         <v>140</v>
       </c>
     </row>
@@ -877,21 +965,27 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-1.144268774703592</v>
+        <v>-1.144268774703558</v>
       </c>
       <c r="D15" t="n">
-        <v>2440.717391304417</v>
+        <v>2440.717391304348</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1898678903114654</v>
+        <v>0.03767658205442268</v>
       </c>
       <c r="F15" t="n">
+        <v>0.5157871996787715</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.1898678903114655</v>
+      </c>
+      <c r="H15" t="n">
         <v>113</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>137.304347826087</v>
       </c>
-      <c r="H15" t="n">
+      <c r="J15" t="n">
         <v>187</v>
       </c>
     </row>
@@ -907,21 +1001,27 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.8033596837944704</v>
+        <v>0.8033596837944664</v>
       </c>
       <c r="D16" t="n">
-        <v>-1343.858695652181</v>
+        <v>-1343.858695652174</v>
       </c>
       <c r="E16" t="n">
+        <v>0.05352425897585714</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.3927238022608863</v>
+      </c>
+      <c r="G16" t="n">
         <v>0.1661544378638727</v>
       </c>
-      <c r="F16" t="n">
+      <c r="H16" t="n">
         <v>236</v>
       </c>
-      <c r="G16" t="n">
+      <c r="I16" t="n">
         <v>273.3043478260869</v>
       </c>
-      <c r="H16" t="n">
+      <c r="J16" t="n">
         <v>296</v>
       </c>
     </row>
@@ -937,21 +1037,27 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.6037549407114459</v>
+        <v>0.6037549407114624</v>
       </c>
       <c r="D17" t="n">
-        <v>-926.7065217390965</v>
+        <v>-926.7065217391303</v>
       </c>
       <c r="E17" t="n">
+        <v>0.08938733160771295</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.3390015289541352</v>
+      </c>
+      <c r="G17" t="n">
         <v>0.1312222490924275</v>
       </c>
-      <c r="F17" t="n">
+      <c r="H17" t="n">
         <v>266</v>
       </c>
-      <c r="G17" t="n">
+      <c r="I17" t="n">
         <v>288.6521739130435</v>
       </c>
-      <c r="H17" t="n">
+      <c r="J17" t="n">
         <v>313</v>
       </c>
     </row>
@@ -967,21 +1073,27 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-0.3745059288537737</v>
+        <v>-0.3745059288537547</v>
       </c>
       <c r="D18" t="n">
-        <v>877.3152173913419</v>
+        <v>877.3152173913039</v>
       </c>
       <c r="E18" t="n">
+        <v>0.1302214025993897</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.2377939132439358</v>
+      </c>
+      <c r="G18" t="n">
         <v>0.1056357811874895</v>
       </c>
-      <c r="F18" t="n">
+      <c r="H18" t="n">
         <v>108</v>
       </c>
-      <c r="G18" t="n">
+      <c r="I18" t="n">
         <v>123.4347826086957</v>
       </c>
-      <c r="H18" t="n">
+      <c r="J18" t="n">
         <v>137</v>
       </c>
     </row>
@@ -997,21 +1109,27 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-0.3535089301822085</v>
+        <v>-0.353508930182212</v>
       </c>
       <c r="D19" t="n">
-        <v>851.7819772686204</v>
+        <v>851.7819772686275</v>
       </c>
       <c r="E19" t="n">
+        <v>0.1572825135867723</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.2405821096843279</v>
+      </c>
+      <c r="G19" t="n">
         <v>0.09743654375525471</v>
       </c>
-      <c r="F19" t="n">
+      <c r="H19" t="n">
         <v>122</v>
       </c>
-      <c r="G19" t="n">
+      <c r="I19" t="n">
         <v>140.1363636363636</v>
       </c>
-      <c r="H19" t="n">
+      <c r="J19" t="n">
         <v>149</v>
       </c>
     </row>
@@ -1027,21 +1145,27 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-0.3988510463684767</v>
+        <v>-0.398851046368486</v>
       </c>
       <c r="D20" t="n">
-        <v>968.7082478456937</v>
+        <v>968.7082478457121</v>
       </c>
       <c r="E20" t="n">
-        <v>0.08827031354056657</v>
+        <v>0.2033402548684868</v>
       </c>
       <c r="F20" t="n">
+        <v>0.3021344147116989</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.08827031354056654</v>
+      </c>
+      <c r="H20" t="n">
         <v>153</v>
       </c>
-      <c r="G20" t="n">
+      <c r="I20" t="n">
         <v>166.2</v>
       </c>
-      <c r="H20" t="n">
+      <c r="J20" t="n">
         <v>188</v>
       </c>
     </row>
@@ -1057,21 +1181,27 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-0.4005667694143513</v>
+        <v>-0.4005667694143384</v>
       </c>
       <c r="D21" t="n">
-        <v>925.9122004574191</v>
+        <v>925.9122004573931</v>
       </c>
       <c r="E21" t="n">
+        <v>0.2120660349446446</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.3101876716919349</v>
+      </c>
+      <c r="G21" t="n">
         <v>0.08068819593908011</v>
       </c>
-      <c r="F21" t="n">
+      <c r="H21" t="n">
         <v>103</v>
       </c>
-      <c r="G21" t="n">
+      <c r="I21" t="n">
         <v>119.6666666666667</v>
       </c>
-      <c r="H21" t="n">
+      <c r="J21" t="n">
         <v>142</v>
       </c>
     </row>
@@ -1087,21 +1217,27 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.3557312252964404</v>
+        <v>0.3557312252964427</v>
       </c>
       <c r="D22" t="n">
-        <v>-446.2608695652125</v>
+        <v>-446.2608695652174</v>
       </c>
       <c r="E22" t="n">
+        <v>0.189595743070208</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.2623965031034644</v>
+      </c>
+      <c r="G22" t="n">
         <v>0.08047690014903129</v>
       </c>
-      <c r="F22" t="n">
+      <c r="H22" t="n">
         <v>248</v>
       </c>
-      <c r="G22" t="n">
+      <c r="I22" t="n">
         <v>269.8260869565217</v>
       </c>
-      <c r="H22" t="n">
+      <c r="J22" t="n">
         <v>280</v>
       </c>
     </row>
@@ -1117,21 +1253,27 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>-0.3754940711462627</v>
+        <v>-0.3754940711462452</v>
       </c>
       <c r="D23" t="n">
-        <v>886.5217391304697</v>
+        <v>886.521739130435</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0752883271809632</v>
+        <v>0.2051489209365009</v>
       </c>
       <c r="F23" t="n">
+        <v>0.2871658439319921</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.07528832718096318</v>
+      </c>
+      <c r="H23" t="n">
         <v>117</v>
       </c>
-      <c r="G23" t="n">
+      <c r="I23" t="n">
         <v>130.6521739130435</v>
       </c>
-      <c r="H23" t="n">
+      <c r="J23" t="n">
         <v>148</v>
       </c>
     </row>
@@ -1147,21 +1289,27 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>-0.3517786561264321</v>
+        <v>-0.3517786561264822</v>
       </c>
       <c r="D24" t="n">
-        <v>977.0434782607682</v>
+        <v>977.0434782608695</v>
       </c>
       <c r="E24" t="n">
-        <v>0.07108147762607078</v>
+        <v>0.2187995288593571</v>
       </c>
       <c r="F24" t="n">
+        <v>0.2775047529089287</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.07108147762607075</v>
+      </c>
+      <c r="H24" t="n">
         <v>257</v>
       </c>
-      <c r="G24" t="n">
+      <c r="I24" t="n">
         <v>268.9130434782609</v>
       </c>
-      <c r="H24" t="n">
+      <c r="J24" t="n">
         <v>289</v>
       </c>
     </row>
@@ -1177,21 +1325,27 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>-0.4315352697095459</v>
+        <v>-0.4315352697095441</v>
       </c>
       <c r="D25" t="n">
-        <v>997.1742738589259</v>
+        <v>997.1742738589223</v>
       </c>
       <c r="E25" t="n">
-        <v>0.06273824622532241</v>
+        <v>0.2608864892337485</v>
       </c>
       <c r="F25" t="n">
+        <v>0.3729628367559849</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.06273824622532244</v>
+      </c>
+      <c r="H25" t="n">
         <v>110</v>
       </c>
-      <c r="G25" t="n">
+      <c r="I25" t="n">
         <v>128.4545454545455</v>
       </c>
-      <c r="H25" t="n">
+      <c r="J25" t="n">
         <v>166</v>
       </c>
     </row>
@@ -1207,21 +1361,27 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.2490118577075244</v>
+        <v>0.2490118577075099</v>
       </c>
       <c r="D26" t="n">
-        <v>-250.6956521739421</v>
+        <v>-250.695652173913</v>
       </c>
       <c r="E26" t="n">
+        <v>0.2942808134739536</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.2314958015280319</v>
+      </c>
+      <c r="G26" t="n">
         <v>0.05222059220177753</v>
       </c>
-      <c r="F26" t="n">
+      <c r="H26" t="n">
         <v>239</v>
       </c>
-      <c r="G26" t="n">
+      <c r="I26" t="n">
         <v>250.5652173913043</v>
       </c>
-      <c r="H26" t="n">
+      <c r="J26" t="n">
         <v>263</v>
       </c>
     </row>
@@ -1237,21 +1397,27 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>-1.441699604742961</v>
+        <v>-1.441699604743083</v>
       </c>
       <c r="D27" t="n">
-        <v>3050.14130434758</v>
+        <v>3050.141304347826</v>
       </c>
       <c r="E27" t="n">
+        <v>0.3590485413235538</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1.537451409282993</v>
+      </c>
+      <c r="G27" t="n">
         <v>0.04018953195231299</v>
       </c>
-      <c r="F27" t="n">
+      <c r="H27" t="n">
         <v>67</v>
       </c>
-      <c r="G27" t="n">
+      <c r="I27" t="n">
         <v>148</v>
       </c>
-      <c r="H27" t="n">
+      <c r="J27" t="n">
         <v>299</v>
       </c>
     </row>
@@ -1267,21 +1433,27 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>-0.1462450592885267</v>
+        <v>-0.1462450592885376</v>
       </c>
       <c r="D28" t="n">
-        <v>488.9999999999781</v>
+        <v>489</v>
       </c>
       <c r="E28" t="n">
-        <v>0.03939058251449453</v>
+        <v>0.3639686165858496</v>
       </c>
       <c r="F28" t="n">
+        <v>0.1575973004063609</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.03939058251449452</v>
+      </c>
+      <c r="H28" t="n">
         <v>183</v>
       </c>
-      <c r="G28" t="n">
+      <c r="I28" t="n">
         <v>194.6086956521739</v>
       </c>
-      <c r="H28" t="n">
+      <c r="J28" t="n">
         <v>203</v>
       </c>
     </row>
@@ -1297,21 +1469,27 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.1600790513834194</v>
+        <v>0.1600790513833992</v>
       </c>
       <c r="D29" t="n">
-        <v>-72.54347826091015</v>
+        <v>-72.54347826086953</v>
       </c>
       <c r="E29" t="n">
+        <v>0.3977972614532418</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.1854556197197161</v>
+      </c>
+      <c r="G29" t="n">
         <v>0.03426324364973263</v>
       </c>
-      <c r="F29" t="n">
+      <c r="H29" t="n">
         <v>241</v>
       </c>
-      <c r="G29" t="n">
+      <c r="I29" t="n">
         <v>249.695652173913</v>
       </c>
-      <c r="H29" t="n">
+      <c r="J29" t="n">
         <v>263</v>
       </c>
     </row>
@@ -1327,21 +1505,27 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.5958498023713867</v>
+        <v>0.5958498023715414</v>
       </c>
       <c r="D30" t="n">
-        <v>-987.1413043475138</v>
+        <v>-987.1413043478258</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0274129096228692</v>
+        <v>0.4502540164250494</v>
       </c>
       <c r="F30" t="n">
+        <v>0.7744864704944104</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.02741290962286921</v>
+      </c>
+      <c r="H30" t="n">
         <v>171</v>
       </c>
-      <c r="G30" t="n">
+      <c r="I30" t="n">
         <v>212.304347826087</v>
       </c>
-      <c r="H30" t="n">
+      <c r="J30" t="n">
         <v>252</v>
       </c>
     </row>
@@ -1357,21 +1541,27 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>-0.5177865612647775</v>
+        <v>-0.5177865612648221</v>
       </c>
       <c r="D31" t="n">
-        <v>1230.043478260779</v>
+        <v>1230.04347826087</v>
       </c>
       <c r="E31" t="n">
+        <v>0.4541330243514322</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.6788985133590177</v>
+      </c>
+      <c r="G31" t="n">
         <v>0.02695295444336597</v>
       </c>
-      <c r="F31" t="n">
+      <c r="H31" t="n">
         <v>162</v>
       </c>
-      <c r="G31" t="n">
+      <c r="I31" t="n">
         <v>187.7391304347826</v>
       </c>
-      <c r="H31" t="n">
+      <c r="J31" t="n">
         <v>269</v>
       </c>
     </row>
@@ -1387,21 +1577,27 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.08300395256915916</v>
+        <v>0.08300395256916995</v>
       </c>
       <c r="D32" t="n">
-        <v>79.3043478261088</v>
+        <v>79.30434782608697</v>
       </c>
       <c r="E32" t="n">
+        <v>0.4928178672545551</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.1189122560555074</v>
+      </c>
+      <c r="G32" t="n">
         <v>0.0226758535582065</v>
       </c>
-      <c r="F32" t="n">
+      <c r="H32" t="n">
         <v>241</v>
       </c>
-      <c r="G32" t="n">
+      <c r="I32" t="n">
         <v>246.3913043478261</v>
       </c>
-      <c r="H32" t="n">
+      <c r="J32" t="n">
         <v>252</v>
       </c>
     </row>
@@ -1417,21 +1613,27 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.1304347826087323</v>
+        <v>0.1304347826086956</v>
       </c>
       <c r="D33" t="n">
-        <v>-152.3043478261606</v>
+        <v>-152.3043478260869</v>
       </c>
       <c r="E33" t="n">
+        <v>0.5407784903449906</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.2097762818564789</v>
+      </c>
+      <c r="G33" t="n">
         <v>0.0180772391125719</v>
       </c>
-      <c r="F33" t="n">
+      <c r="H33" t="n">
         <v>93</v>
       </c>
-      <c r="G33" t="n">
+      <c r="I33" t="n">
         <v>110.2608695652174</v>
       </c>
-      <c r="H33" t="n">
+      <c r="J33" t="n">
         <v>119</v>
       </c>
     </row>
@@ -1447,21 +1649,27 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.9990118577073313</v>
+        <v>0.9990118577075099</v>
       </c>
       <c r="D34" t="n">
-        <v>-1881.6630434779</v>
+        <v>-1881.663043478261</v>
       </c>
       <c r="E34" t="n">
+        <v>0.5477455235912529</v>
+      </c>
+      <c r="F34" t="n">
+        <v>1.634997678981501</v>
+      </c>
+      <c r="G34" t="n">
         <v>0.01746765346200036</v>
       </c>
-      <c r="F34" t="n">
+      <c r="H34" t="n">
         <v>76</v>
       </c>
-      <c r="G34" t="n">
+      <c r="I34" t="n">
         <v>129.3478260869565</v>
       </c>
-      <c r="H34" t="n">
+      <c r="J34" t="n">
         <v>280</v>
       </c>
     </row>
@@ -1477,21 +1685,27 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.1057312252964523</v>
+        <v>0.1057312252964427</v>
       </c>
       <c r="D35" t="n">
-        <v>42.46739130432841</v>
+        <v>42.46739130434784</v>
       </c>
       <c r="E35" t="n">
-        <v>0.01727556403230284</v>
+        <v>0.5499746538699662</v>
       </c>
       <c r="F35" t="n">
+        <v>0.1740176812928356</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.01727556403230285</v>
+      </c>
+      <c r="H35" t="n">
         <v>241</v>
       </c>
-      <c r="G35" t="n">
+      <c r="I35" t="n">
         <v>255.304347826087</v>
       </c>
-      <c r="H35" t="n">
+      <c r="J35" t="n">
         <v>267</v>
       </c>
     </row>
@@ -1507,21 +1721,27 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>-0.5773949125022682</v>
+        <v>-0.5773949125022559</v>
       </c>
       <c r="D36" t="n">
-        <v>1298.802994768203</v>
+        <v>1298.802994768178</v>
       </c>
       <c r="E36" t="n">
+        <v>0.6015617075077913</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1.088261906818727</v>
+      </c>
+      <c r="G36" t="n">
         <v>0.01387966454708521</v>
       </c>
-      <c r="F36" t="n">
+      <c r="H36" t="n">
         <v>77</v>
       </c>
-      <c r="G36" t="n">
+      <c r="I36" t="n">
         <v>136.4545454545455</v>
       </c>
-      <c r="H36" t="n">
+      <c r="J36" t="n">
         <v>171</v>
       </c>
     </row>
@@ -1537,21 +1757,27 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>-0.2429189969330885</v>
+        <v>-0.242918996933069</v>
       </c>
       <c r="D37" t="n">
-        <v>612.4271152805738</v>
+        <v>612.4271152805346</v>
       </c>
       <c r="E37" t="n">
+        <v>0.601841714966372</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.4582040213995062</v>
+      </c>
+      <c r="G37" t="n">
         <v>0.01385844270653762</v>
       </c>
-      <c r="F37" t="n">
+      <c r="H37" t="n">
         <v>106</v>
       </c>
-      <c r="G37" t="n">
+      <c r="I37" t="n">
         <v>123.4090909090909</v>
       </c>
-      <c r="H37" t="n">
+      <c r="J37" t="n">
         <v>168</v>
       </c>
     </row>
@@ -1567,21 +1793,27 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.1348547717842342</v>
+        <v>0.1348547717842325</v>
       </c>
       <c r="D38" t="n">
-        <v>-128.4294605809165</v>
+        <v>-128.4294605809131</v>
       </c>
       <c r="E38" t="n">
+        <v>0.6083783403397158</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.2590495620720089</v>
+      </c>
+      <c r="G38" t="n">
         <v>0.01336877980288634</v>
       </c>
-      <c r="F38" t="n">
+      <c r="H38" t="n">
         <v>122</v>
       </c>
-      <c r="G38" t="n">
+      <c r="I38" t="n">
         <v>143.0454545454545</v>
       </c>
-      <c r="H38" t="n">
+      <c r="J38" t="n">
         <v>164</v>
       </c>
     </row>
@@ -1597,21 +1829,27 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>-0.1294466403162308</v>
+        <v>-0.1294466403162055</v>
       </c>
       <c r="D39" t="n">
-        <v>528.228260869616</v>
+        <v>528.2282608695652</v>
       </c>
       <c r="E39" t="n">
+        <v>0.6288797328278801</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.2639180421763725</v>
+      </c>
+      <c r="G39" t="n">
         <v>0.01132601717019187</v>
       </c>
-      <c r="F39" t="n">
+      <c r="H39" t="n">
         <v>253</v>
       </c>
-      <c r="G39" t="n">
+      <c r="I39" t="n">
         <v>267.6521739130435</v>
       </c>
-      <c r="H39" t="n">
+      <c r="J39" t="n">
         <v>287</v>
       </c>
     </row>
@@ -1627,21 +1865,27 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>-0.07707509881421822</v>
+        <v>-0.07707509881422925</v>
       </c>
       <c r="D40" t="n">
-        <v>347.5869565217168</v>
+        <v>347.5869565217391</v>
       </c>
       <c r="E40" t="n">
+        <v>0.6895633386116033</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.1903022841551675</v>
+      </c>
+      <c r="G40" t="n">
         <v>0.007750713412148384</v>
       </c>
-      <c r="F40" t="n">
+      <c r="H40" t="n">
         <v>182</v>
       </c>
-      <c r="G40" t="n">
+      <c r="I40" t="n">
         <v>192.4347826086957</v>
       </c>
-      <c r="H40" t="n">
+      <c r="J40" t="n">
         <v>209</v>
       </c>
     </row>
@@ -1657,21 +1901,27 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>-0.2905138339919717</v>
+        <v>-0.2905138339920948</v>
       </c>
       <c r="D41" t="n">
-        <v>803.0217391301866</v>
+        <v>803.0217391304345</v>
       </c>
       <c r="E41" t="n">
+        <v>0.7210398057848667</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.8027368832211671</v>
+      </c>
+      <c r="G41" t="n">
         <v>0.006198229765615183</v>
       </c>
-      <c r="F41" t="n">
+      <c r="H41" t="n">
         <v>170</v>
       </c>
-      <c r="G41" t="n">
+      <c r="I41" t="n">
         <v>218.2173913043478</v>
       </c>
-      <c r="H41" t="n">
+      <c r="J41" t="n">
         <v>255</v>
       </c>
     </row>
@@ -1687,21 +1937,27 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>-0.07411067193671235</v>
+        <v>-0.0741106719367589</v>
       </c>
       <c r="D42" t="n">
-        <v>261.6630434781671</v>
+        <v>261.6630434782609</v>
       </c>
       <c r="E42" t="n">
-        <v>0.005138300204618529</v>
+        <v>0.7451645600776927</v>
       </c>
       <c r="F42" t="n">
+        <v>0.2250311928144287</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.005138300204618531</v>
+      </c>
+      <c r="H42" t="n">
         <v>95</v>
       </c>
-      <c r="G42" t="n">
+      <c r="I42" t="n">
         <v>112.4782608695652</v>
       </c>
-      <c r="H42" t="n">
+      <c r="J42" t="n">
         <v>123</v>
       </c>
     </row>
@@ -1717,21 +1973,27 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>-0.0780632411067016</v>
+        <v>-0.07806324110671936</v>
       </c>
       <c r="D43" t="n">
-        <v>423.9239130434424</v>
+        <v>423.9239130434783</v>
       </c>
       <c r="E43" t="n">
-        <v>0.004139165083778136</v>
+        <v>0.7705604933572539</v>
       </c>
       <c r="F43" t="n">
+        <v>0.2642286366353284</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.004139165083778134</v>
+      </c>
+      <c r="H43" t="n">
         <v>253</v>
       </c>
-      <c r="G43" t="n">
+      <c r="I43" t="n">
         <v>266.7826086956522</v>
       </c>
-      <c r="H43" t="n">
+      <c r="J43" t="n">
         <v>284</v>
       </c>
     </row>
@@ -1747,21 +2009,27 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.04545454545452497</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="D44" t="n">
-        <v>162.9347826087369</v>
+        <v>162.9347826086957</v>
       </c>
       <c r="E44" t="n">
-        <v>0.004023670439333088</v>
+        <v>0.7737020558402513</v>
       </c>
       <c r="F44" t="n">
+        <v>0.1560561826067213</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.004023670439333092</v>
+      </c>
+      <c r="H44" t="n">
         <v>242</v>
       </c>
-      <c r="G44" t="n">
+      <c r="I44" t="n">
         <v>254.4347826086957</v>
       </c>
-      <c r="H44" t="n">
+      <c r="J44" t="n">
         <v>265</v>
       </c>
     </row>
@@ -1777,21 +2045,27 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>-0.05890312105358887</v>
+        <v>-0.05890312105358114</v>
       </c>
       <c r="D45" t="n">
-        <v>251.2591556918793</v>
+        <v>251.2591556918637</v>
       </c>
       <c r="E45" t="n">
-        <v>0.003425545535733932</v>
+        <v>0.7958524419714104</v>
       </c>
       <c r="F45" t="n">
+        <v>0.2246535635688309</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.003425545535733934</v>
+      </c>
+      <c r="H45" t="n">
         <v>114</v>
       </c>
-      <c r="G45" t="n">
+      <c r="I45" t="n">
         <v>132.6818181818182</v>
       </c>
-      <c r="H45" t="n">
+      <c r="J45" t="n">
         <v>144</v>
       </c>
     </row>
@@ -1807,21 +2081,27 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>-0.05731225296444441</v>
+        <v>-0.05731225296442688</v>
       </c>
       <c r="D46" t="n">
-        <v>253.0652173913396</v>
+        <v>253.0652173913043</v>
       </c>
       <c r="E46" t="n">
-        <v>0.002992350115637787</v>
+        <v>0.8042127882376915</v>
       </c>
       <c r="F46" t="n">
+        <v>0.2282868396694487</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.002992350115637788</v>
+      </c>
+      <c r="H46" t="n">
         <v>123</v>
       </c>
-      <c r="G46" t="n">
+      <c r="I46" t="n">
         <v>137.695652173913</v>
       </c>
-      <c r="H46" t="n">
+      <c r="J46" t="n">
         <v>151</v>
       </c>
     </row>
@@ -1837,21 +2117,27 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.1571146245058363</v>
+        <v>0.1571146245059289</v>
       </c>
       <c r="D47" t="n">
-        <v>-103.9239130432918</v>
+        <v>-103.9239130434784</v>
       </c>
       <c r="E47" t="n">
-        <v>0.002961539002207012</v>
+        <v>0.8052044748043579</v>
       </c>
       <c r="F47" t="n">
+        <v>0.6290775576933624</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.002961539002207011</v>
+      </c>
+      <c r="H47" t="n">
         <v>156</v>
       </c>
-      <c r="G47" t="n">
+      <c r="I47" t="n">
         <v>212.3478260869565</v>
       </c>
-      <c r="H47" t="n">
+      <c r="J47" t="n">
         <v>242</v>
       </c>
     </row>
@@ -1867,21 +2153,27 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>-0.09387351778659093</v>
+        <v>-0.09387351778656126</v>
       </c>
       <c r="D48" t="n">
-        <v>354.4021739131031</v>
+        <v>354.4021739130435</v>
       </c>
       <c r="E48" t="n">
-        <v>0.002180621678931304</v>
+        <v>0.8324366488636707</v>
       </c>
       <c r="F48" t="n">
+        <v>0.4381968484203466</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.002180621678931303</v>
+      </c>
+      <c r="H48" t="n">
         <v>145</v>
       </c>
-      <c r="G48" t="n">
+      <c r="I48" t="n">
         <v>165.4347826086957</v>
       </c>
-      <c r="H48" t="n">
+      <c r="J48" t="n">
         <v>190</v>
       </c>
     </row>
@@ -1897,21 +2189,27 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>-0.07312252964427145</v>
+        <v>-0.07312252964426878</v>
       </c>
       <c r="D49" t="n">
-        <v>275.2826086956575</v>
+        <v>275.2826086956522</v>
       </c>
       <c r="E49" t="n">
+        <v>0.8484155192696248</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.3778657996844726</v>
+      </c>
+      <c r="G49" t="n">
         <v>0.001780058147699318</v>
       </c>
-      <c r="F49" t="n">
+      <c r="H49" t="n">
         <v>99</v>
       </c>
-      <c r="G49" t="n">
+      <c r="I49" t="n">
         <v>128.0869565217391</v>
       </c>
-      <c r="H49" t="n">
+      <c r="J49" t="n">
         <v>148</v>
       </c>
     </row>
@@ -1927,21 +2225,27 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.06521739130433089</v>
+        <v>0.06521739130434782</v>
       </c>
       <c r="D50" t="n">
-        <v>44.28260869568626</v>
+        <v>44.28260869565219</v>
       </c>
       <c r="E50" t="n">
+        <v>0.8575979174726687</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.359024169553646</v>
+      </c>
+      <c r="G50" t="n">
         <v>0.001568838742393509</v>
       </c>
-      <c r="F50" t="n">
+      <c r="H50" t="n">
         <v>153</v>
       </c>
-      <c r="G50" t="n">
+      <c r="I50" t="n">
         <v>175.5652173913043</v>
       </c>
-      <c r="H50" t="n">
+      <c r="J50" t="n">
         <v>196</v>
       </c>
     </row>
@@ -1957,21 +2261,27 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>-0.05533596837944037</v>
+        <v>-0.05533596837944665</v>
       </c>
       <c r="D51" t="n">
-        <v>245.3043478260743</v>
+        <v>245.304347826087</v>
       </c>
       <c r="E51" t="n">
+        <v>0.8695028756399203</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.3327253494054641</v>
+      </c>
+      <c r="G51" t="n">
         <v>0.001315383273156786</v>
       </c>
-      <c r="F51" t="n">
+      <c r="H51" t="n">
         <v>111</v>
       </c>
-      <c r="G51" t="n">
+      <c r="I51" t="n">
         <v>133.9130434782609</v>
       </c>
-      <c r="H51" t="n">
+      <c r="J51" t="n">
         <v>155</v>
       </c>
     </row>
@@ -1987,21 +2297,27 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0.02569169960474267</v>
+        <v>0.02569169960474308</v>
       </c>
       <c r="D52" t="n">
-        <v>87.23913043478341</v>
+        <v>87.23913043478262</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0005916828299944682</v>
+        <v>0.9122771540693558</v>
       </c>
       <c r="F52" t="n">
+        <v>0.2304147008872723</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.0005916828299944681</v>
+      </c>
+      <c r="H52" t="n">
         <v>122</v>
       </c>
-      <c r="G52" t="n">
+      <c r="I52" t="n">
         <v>138.9565217391304</v>
       </c>
-      <c r="H52" t="n">
+      <c r="J52" t="n">
         <v>155</v>
       </c>
     </row>
@@ -2017,21 +2333,27 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0.1175889328063487</v>
+        <v>0.1175889328063242</v>
       </c>
       <c r="D53" t="n">
-        <v>-135.1847826087451</v>
+        <v>-135.1847826086958</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0003289723721749174</v>
+        <v>0.9345350383541142</v>
       </c>
       <c r="F53" t="n">
+        <v>1.4145087590833</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.0003289723721749175</v>
+      </c>
+      <c r="H53" t="n">
         <v>75</v>
       </c>
-      <c r="G53" t="n">
+      <c r="I53" t="n">
         <v>101.5217391304348</v>
       </c>
-      <c r="H53" t="n">
+      <c r="J53" t="n">
         <v>297</v>
       </c>
     </row>
@@ -2047,21 +2369,27 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0.0227272727272567</v>
+        <v>0.02272727272727267</v>
       </c>
       <c r="D54" t="n">
-        <v>90.77173913046705</v>
+        <v>90.7717391304349</v>
       </c>
       <c r="E54" t="n">
+        <v>0.9392830735398217</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.2948213867142116</v>
+      </c>
+      <c r="G54" t="n">
         <v>0.0002829010135236296</v>
       </c>
-      <c r="F54" t="n">
+      <c r="H54" t="n">
         <v>118</v>
       </c>
-      <c r="G54" t="n">
+      <c r="I54" t="n">
         <v>136.5217391304348</v>
       </c>
-      <c r="H54" t="n">
+      <c r="J54" t="n">
         <v>159</v>
       </c>
     </row>
@@ -2077,21 +2405,27 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0.00712610499728695</v>
+        <v>0.007126104997293883</v>
       </c>
       <c r="D55" t="n">
-        <v>184.5635937218253</v>
+        <v>184.5635937218113</v>
       </c>
       <c r="E55" t="n">
-        <v>7.900116401715074e-05</v>
+        <v>0.9686857181162396</v>
       </c>
       <c r="F55" t="n">
+        <v>0.1792682250366223</v>
+      </c>
+      <c r="G55" t="n">
+        <v>7.900116401715077e-05</v>
+      </c>
+      <c r="H55" t="n">
         <v>184</v>
       </c>
-      <c r="G55" t="n">
+      <c r="I55" t="n">
         <v>198.9090909090909</v>
       </c>
-      <c r="H55" t="n">
+      <c r="J55" t="n">
         <v>206</v>
       </c>
     </row>
